--- a/sevenrmartsupermarket/src/test/resources/TestData.xlsx
+++ b/sevenrmartsupermarket/src/test/resources/TestData.xlsx
@@ -5,16 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\git\7rmart\sevenrmartsupermarket\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53790B50-0B17-495A-97FE-3036B1E6820F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F258C6E-374D-4890-9085-C9798AC5E634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C780F8EC-40BA-4CDE-91BD-826EB4169528}"/>
+    <workbookView xWindow="5760" yWindow="2808" windowWidth="17280" windowHeight="8880" firstSheet="4" activeTab="6" xr2:uid="{C780F8EC-40BA-4CDE-91BD-826EB4169528}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="AdminUserPage" sheetId="2" r:id="rId2"/>
+    <sheet name="SubcategoryPage" sheetId="3" r:id="rId3"/>
+    <sheet name="ManageNewsPage" sheetId="4" r:id="rId4"/>
+    <sheet name="ManageContactPage" sheetId="5" r:id="rId5"/>
+    <sheet name="FooterTextPage" sheetId="6" r:id="rId6"/>
+    <sheet name="ChangePasswordPage" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,8 +33,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>UserName</t>
   </si>
@@ -46,19 +49,127 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>admn</t>
+  </si>
+  <si>
+    <t>new username</t>
+  </si>
+  <si>
+    <t>new password</t>
+  </si>
+  <si>
+    <t>user type</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>expected alert text</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-admin</t>
+  </si>
+  <si>
+    <t>vichu</t>
+  </si>
+  <si>
+    <t>Vihaan</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>Username already exists.</t>
+  </si>
+  <si>
+    <t>searchUsername</t>
+  </si>
+  <si>
+    <t>Praveen</t>
+  </si>
+  <si>
+    <t>searchusertype</t>
+  </si>
+  <si>
+    <t>User Created Successfully</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-sub-category</t>
+  </si>
+  <si>
+    <t>C:\\Users\\hp\\OneDrive\\Desktop\\download.jpg</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/News/add</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>expected message</t>
+  </si>
+  <si>
+    <t>message from obsqura</t>
+  </si>
+  <si>
+    <t>News Created Successfully</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-contact</t>
+  </si>
+  <si>
+    <t>expectedmessage</t>
+  </si>
+  <si>
+    <t>Contact Updated Successfully</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-footertext</t>
+  </si>
+  <si>
+    <t>expected msg</t>
+  </si>
+  <si>
+    <t>Footer Text Updated Successfully</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/reset-password</t>
+  </si>
+  <si>
+    <t>old password</t>
+  </si>
+  <si>
+    <t>Password Updated Successfully</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,8 +192,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C84E6BC-F60A-45CA-9AC2-518821CBB565}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -421,19 +545,310 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629837F9-3AA1-4607-8D53-46D8ABD71E19}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DE4E35-777F-4081-A463-91483DDE07D5}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629837F9-3AA1-4607-8D53-46D8ABD71E19}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95565CFB-9B33-4560-A6F1-F4E38DF66655}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4216809-DA9B-41E7-848A-3D4A82A85C21}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD14A38-7B0F-4657-9694-788864157717}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3C1A1D-C45B-4603-82B7-4A907B4AFE6D}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sevenrmartsupermarket/src/test/resources/TestData.xlsx
+++ b/sevenrmartsupermarket/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\git\7rmart\sevenrmartsupermarket\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F258C6E-374D-4890-9085-C9798AC5E634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B73D45-151A-4960-BD45-9D9BABE6E5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2808" windowWidth="17280" windowHeight="8880" firstSheet="4" activeTab="6" xr2:uid="{C780F8EC-40BA-4CDE-91BD-826EB4169528}"/>
+    <workbookView xWindow="5760" yWindow="2808" windowWidth="17280" windowHeight="8880" firstSheet="5" activeTab="7" xr2:uid="{C780F8EC-40BA-4CDE-91BD-826EB4169528}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="ManageContactPage" sheetId="5" r:id="rId5"/>
     <sheet name="FooterTextPage" sheetId="6" r:id="rId6"/>
     <sheet name="ChangePasswordPage" sheetId="7" r:id="rId7"/>
+    <sheet name="MenuManagementPage" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>UserName</t>
   </si>
@@ -145,6 +146,27 @@
   </si>
   <si>
     <t>Password Updated Successfully</t>
+  </si>
+  <si>
+    <t>expected alert</t>
+  </si>
+  <si>
+    <t>Sub Category Created Successfully</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/menu/index?sr_name=category+test&amp;sr_tbl=&amp;Search=sr</t>
+  </si>
+  <si>
+    <t>Expected message</t>
+  </si>
+  <si>
+    <t>Menu Created Successfully</t>
+  </si>
+  <si>
+    <t>Menu name</t>
+  </si>
+  <si>
+    <t>Category Test</t>
   </si>
 </sst>
 </file>
@@ -658,10 +680,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DE4E35-777F-4081-A463-91483DDE07D5}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,20 +691,26 @@
     <col min="1" max="1" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -808,7 +836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3C1A1D-C45B-4603-82B7-4A907B4AFE6D}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -835,7 +863,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B2" t="s">
@@ -846,6 +874,47 @@
       </c>
       <c r="D2" s="2" t="s">
         <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F06B3528-4CD9-49A3-AC95-EFC82483A392}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
